--- a/Demands.xlsx
+++ b/Demands.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yihan/CityU/paper/ADS survey/Survey Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D30E90-103C-BF49-A295-0010C9AFC927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688F35AC-98A5-6C4E-BFB9-FAF3D8520CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15060" yWindow="6080" windowWidth="27700" windowHeight="21900" activeTab="1" xr2:uid="{2BADF829-4A82-5146-8F59-F2BB45B108CB}"/>
+    <workbookView xWindow="15060" yWindow="6080" windowWidth="27700" windowHeight="21900" xr2:uid="{2BADF829-4A82-5146-8F59-F2BB45B108CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Ratings" sheetId="3" r:id="rId1"/>
     <sheet name="Demands" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Demands</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,14 +71,6 @@
   </si>
   <si>
     <t>Cross-Model Collaboration in V2X Systems.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common Demands</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Foundation Models Demands</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -178,7 +170,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -209,12 +201,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -309,7 +295,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -322,6 +308,39 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -330,63 +349,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5E2A57-DC96-F444-B5E9-ECFC5FA3A432}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -740,124 +702,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="A1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3">
         <f>4</f>
         <v>4</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="16"/>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="16"/>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="B7" s="16"/>
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5">
         <v>8</v>
       </c>
-      <c r="E3" s="7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="7">
-        <v>4</v>
-      </c>
-      <c r="D4" s="7">
-        <v>6</v>
-      </c>
-      <c r="E4" s="7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>4</v>
-      </c>
-      <c r="E5" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="7">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7">
-        <v>10</v>
-      </c>
-      <c r="E6" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="7">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7">
-        <v>2</v>
-      </c>
-      <c r="E7" s="7">
-        <v>8</v>
-      </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A9:C9"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -866,10 +828,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B7714F-8E5A-CE40-B802-CC0FF0258B08}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -881,196 +843,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1">
-      <c r="A2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="6">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="14"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="21" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="6">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="23">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="23">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="14"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="21" t="s">
+      <c r="C18" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="6">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="25">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="14"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="21" t="s">
+      <c r="C19" s="4">
         <v>9</v>
       </c>
-      <c r="C17" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="14"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="11">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="6">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A5:A7"/>
+  <mergeCells count="2">
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demands.xlsx
+++ b/Demands.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yihan/CityU/paper/ADS survey/Survey Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688F35AC-98A5-6C4E-BFB9-FAF3D8520CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F1B0F1-AF30-D54B-BB1A-DB0CDEBD8BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15060" yWindow="6080" windowWidth="27700" windowHeight="21900" xr2:uid="{2BADF829-4A82-5146-8F59-F2BB45B108CB}"/>
+    <workbookView xWindow="6620" yWindow="4700" windowWidth="27700" windowHeight="21900" activeTab="1" xr2:uid="{2BADF829-4A82-5146-8F59-F2BB45B108CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Ratings" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Demands</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,18 @@
   </si>
   <si>
     <t>Cross-modality Adaptation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Practitioner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Researcher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -234,8 +246,8 @@
     </font>
     <font>
       <i/>
-      <sz val="12"/>
-      <color theme="1" tint="0.499984740745262"/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -266,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -289,13 +301,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -314,9 +361,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -329,26 +373,41 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -691,7 +750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5E2A57-DC96-F444-B5E9-ECFC5FA3A432}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -702,19 +761,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
@@ -727,7 +786,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -744,7 +803,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="16"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
@@ -759,7 +818,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="16"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
@@ -774,10 +833,10 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="5">
         <v>2</v>
       </c>
@@ -789,10 +848,10 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="5">
         <v>4</v>
       </c>
@@ -804,22 +863,22 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A9:E9"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -828,170 +887,278 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B7714F-8E5A-CE40-B802-CC0FF0258B08}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="55.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="3" max="4" width="10.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" ht="28" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" ht="28" customHeight="1">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C3" s="5">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:5">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C5" s="5">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="10" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="14"/>
+      <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C6" s="21">
+        <v>9</v>
+      </c>
+      <c r="D6" s="21">
+        <v>7</v>
+      </c>
+      <c r="E6" s="20">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="10" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="14"/>
+      <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C7" s="21">
+        <v>4</v>
+      </c>
+      <c r="D7" s="21">
+        <v>1</v>
+      </c>
+      <c r="E7" s="20">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:5">
+      <c r="B8" s="6"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C9" s="5">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:5">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C11" s="5">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="12" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="14"/>
+      <c r="B12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C12" s="21">
+        <v>2</v>
+      </c>
+      <c r="D12" s="21">
+        <v>12</v>
+      </c>
+      <c r="E12" s="20">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="12" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="14"/>
+      <c r="B13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C13" s="21">
+        <v>1</v>
+      </c>
+      <c r="D13" s="21">
+        <v>4</v>
+      </c>
+      <c r="E13" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="12" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="14"/>
+      <c r="B14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C14" s="21">
+        <v>2</v>
+      </c>
+      <c r="D14" s="21">
+        <v>8</v>
+      </c>
+      <c r="E14" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="12" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="14"/>
+      <c r="B15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C15" s="21">
+        <v>0</v>
+      </c>
+      <c r="D15" s="21">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4" t="s">
+      <c r="E15" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C17" s="5">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:5">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C19" s="5">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5">
+        <v>13</v>
+      </c>
+      <c r="E19" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
         <v>9</v>
       </c>
+      <c r="E20" s="4">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A4:A6"/>
+  <mergeCells count="5">
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
